--- a/no-basis/CurrentBuild/ValueSet-no-basis-family-relation.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-family-relation.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-family-relation.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-family-relation.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-family-relation.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-family-relation.valueset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Publisher</t>
-  </si>
-  <si>
-    <t>Direktoratet for e-helse</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -227,10 +224,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -317,44 +314,42 @@
       <c r="A9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -376,28 +371,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-family-relation.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-family-relation.valueset.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from no-basis-family-" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-family-relation.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-family-relation.valueset.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
